--- a/config_6.22/item_config.xlsx
+++ b/config_6.22/item_config.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="1026">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="1027">
   <si>
     <t>id|行号</t>
   </si>
@@ -1762,6 +1762,9 @@
   </si>
   <si>
     <t>act_ty_by_drop_7</t>
+  </si>
+  <si>
+    <t>欢乐券</t>
   </si>
   <si>
     <t>掉落物活动通用道具</t>
@@ -3535,26 +3538,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3566,62 +3561,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3639,9 +3581,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3649,7 +3607,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3664,14 +3622,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -3740,13 +3743,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3764,7 +3845,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3776,25 +3875,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3806,43 +3899,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3854,61 +3911,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3948,69 +3951,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -4035,6 +3975,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -4042,6 +3997,54 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4053,10 +4056,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4065,133 +4068,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4647,10 +4650,10 @@
   <sheetPr/>
   <dimension ref="A1:Q328"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A302" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J330" sqref="J330"/>
+      <selection pane="bottomLeft" activeCell="F137" sqref="F137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -9008,10 +9011,10 @@
         <v>1</v>
       </c>
       <c r="I131" s="30" t="s">
-        <v>205</v>
+        <v>465</v>
       </c>
       <c r="J131" s="30" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="132" spans="1:10">
@@ -9022,7 +9025,7 @@
         <v>131</v>
       </c>
       <c r="C132" s="24" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D132" s="3">
         <v>-1</v>
@@ -9040,10 +9043,10 @@
         <v>33</v>
       </c>
       <c r="I132" s="24" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="J132" s="24" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="133" spans="1:10">
@@ -9054,7 +9057,7 @@
         <v>132</v>
       </c>
       <c r="C133" s="24" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D133" s="3">
         <v>-1</v>
@@ -9072,10 +9075,10 @@
         <v>33</v>
       </c>
       <c r="I133" s="24" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="J133" s="24" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="134" spans="1:10">
@@ -9086,7 +9089,7 @@
         <v>133</v>
       </c>
       <c r="C134" s="24" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D134" s="3">
         <v>-1</v>
@@ -9104,10 +9107,10 @@
         <v>33</v>
       </c>
       <c r="I134" s="24" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="J134" s="24" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="135" spans="1:10">
@@ -9118,7 +9121,7 @@
         <v>134</v>
       </c>
       <c r="C135" s="24" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D135" s="3">
         <v>-1</v>
@@ -9136,10 +9139,10 @@
         <v>33</v>
       </c>
       <c r="I135" s="24" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="J135" s="24" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="136" spans="1:10">
@@ -9150,7 +9153,7 @@
         <v>135</v>
       </c>
       <c r="C136" s="24" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D136" s="3">
         <v>-1</v>
@@ -9168,10 +9171,10 @@
         <v>33</v>
       </c>
       <c r="I136" s="24" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="J136" s="24" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="137" spans="1:10">
@@ -9182,7 +9185,7 @@
         <v>136</v>
       </c>
       <c r="C137" s="24" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D137" s="3">
         <v>-1</v>
@@ -9200,10 +9203,10 @@
         <v>33</v>
       </c>
       <c r="I137" s="24" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="J137" s="24" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="138" spans="1:10">
@@ -9214,7 +9217,7 @@
         <v>137</v>
       </c>
       <c r="C138" s="14" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D138" s="10">
         <v>-1</v>
@@ -9232,10 +9235,10 @@
         <v>33</v>
       </c>
       <c r="I138" s="14" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="J138" s="14" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="139" spans="1:10">
@@ -9246,7 +9249,7 @@
         <v>138</v>
       </c>
       <c r="C139" s="14" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D139" s="10">
         <v>-1</v>
@@ -9264,10 +9267,10 @@
         <v>33</v>
       </c>
       <c r="I139" s="14" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="J139" s="14" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="140" spans="1:10">
@@ -9278,7 +9281,7 @@
         <v>139</v>
       </c>
       <c r="C140" s="14" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D140" s="10">
         <v>-1</v>
@@ -9296,10 +9299,10 @@
         <v>33</v>
       </c>
       <c r="I140" s="14" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="J140" s="14" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="141" spans="1:10">
@@ -9310,7 +9313,7 @@
         <v>140</v>
       </c>
       <c r="C141" s="14" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D141" s="10">
         <v>-1</v>
@@ -9328,10 +9331,10 @@
         <v>33</v>
       </c>
       <c r="I141" s="14" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="J141" s="14" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="142" spans="1:10">
@@ -9342,7 +9345,7 @@
         <v>141</v>
       </c>
       <c r="C142" s="14" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D142" s="10">
         <v>-1</v>
@@ -9360,10 +9363,10 @@
         <v>33</v>
       </c>
       <c r="I142" s="14" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="J142" s="14" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="143" spans="1:10">
@@ -9374,7 +9377,7 @@
         <v>142</v>
       </c>
       <c r="C143" s="14" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D143" s="10">
         <v>-1</v>
@@ -9392,10 +9395,10 @@
         <v>33</v>
       </c>
       <c r="I143" s="14" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="J143" s="14" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="144" spans="1:10">
@@ -9406,7 +9409,7 @@
         <v>143</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D144" s="10">
         <v>-1</v>
@@ -9415,7 +9418,7 @@
         <v>1</v>
       </c>
       <c r="F144" s="14" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G144" s="10">
         <v>0</v>
@@ -9424,10 +9427,10 @@
         <v>33</v>
       </c>
       <c r="I144" s="14" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="J144" s="14" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="145" spans="1:10">
@@ -9438,7 +9441,7 @@
         <v>144</v>
       </c>
       <c r="C145" s="14" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D145" s="10">
         <v>-1</v>
@@ -9447,7 +9450,7 @@
         <v>1</v>
       </c>
       <c r="F145" s="14" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="G145" s="10">
         <v>0</v>
@@ -9456,10 +9459,10 @@
         <v>33</v>
       </c>
       <c r="I145" s="14" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="J145" s="14" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="146" s="3" customFormat="1" ht="16.5" spans="1:10">
@@ -9470,7 +9473,7 @@
         <v>145</v>
       </c>
       <c r="C146" s="25" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D146" s="3">
         <v>-1</v>
@@ -9488,10 +9491,10 @@
         <v>33</v>
       </c>
       <c r="I146" s="24" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="J146" s="36" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="147" s="3" customFormat="1" ht="16.5" spans="1:10">
@@ -9502,7 +9505,7 @@
         <v>146</v>
       </c>
       <c r="C147" s="25" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D147" s="3">
         <v>-1</v>
@@ -9523,7 +9526,7 @@
         <v>128</v>
       </c>
       <c r="J147" s="36" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="148" s="3" customFormat="1" ht="16.5" spans="1:10">
@@ -9534,7 +9537,7 @@
         <v>147</v>
       </c>
       <c r="C148" s="25" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D148" s="3">
         <v>-1</v>
@@ -9555,7 +9558,7 @@
         <v>133</v>
       </c>
       <c r="J148" s="36" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="149" s="3" customFormat="1" ht="16.5" spans="1:10">
@@ -9566,7 +9569,7 @@
         <v>148</v>
       </c>
       <c r="C149" s="25" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D149" s="3">
         <v>-1</v>
@@ -9584,10 +9587,10 @@
         <v>33</v>
       </c>
       <c r="I149" s="24" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="J149" s="36" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="150" s="3" customFormat="1" ht="16.5" spans="1:10">
@@ -9598,7 +9601,7 @@
         <v>149</v>
       </c>
       <c r="C150" s="25" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D150" s="3">
         <v>-1</v>
@@ -9619,7 +9622,7 @@
         <v>128</v>
       </c>
       <c r="J150" s="36" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="151" s="3" customFormat="1" ht="16.5" spans="1:10">
@@ -9630,7 +9633,7 @@
         <v>150</v>
       </c>
       <c r="C151" s="25" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D151" s="3">
         <v>-1</v>
@@ -9651,7 +9654,7 @@
         <v>133</v>
       </c>
       <c r="J151" s="36" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="152" s="3" customFormat="1" ht="16.5" spans="1:10">
@@ -9662,7 +9665,7 @@
         <v>151</v>
       </c>
       <c r="C152" s="25" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D152" s="3">
         <v>-1</v>
@@ -9680,10 +9683,10 @@
         <v>33</v>
       </c>
       <c r="I152" s="24" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="J152" s="36" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="153" s="3" customFormat="1" ht="16.5" spans="1:10">
@@ -9694,7 +9697,7 @@
         <v>152</v>
       </c>
       <c r="C153" s="25" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D153" s="3">
         <v>-1</v>
@@ -9715,7 +9718,7 @@
         <v>128</v>
       </c>
       <c r="J153" s="36" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="154" s="3" customFormat="1" ht="16.5" spans="1:10">
@@ -9726,7 +9729,7 @@
         <v>153</v>
       </c>
       <c r="C154" s="25" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D154" s="3">
         <v>-1</v>
@@ -9747,7 +9750,7 @@
         <v>133</v>
       </c>
       <c r="J154" s="36" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="155" s="3" customFormat="1" spans="1:10">
@@ -9758,7 +9761,7 @@
         <v>154</v>
       </c>
       <c r="C155" s="24" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D155" s="3">
         <v>-1</v>
@@ -9767,7 +9770,7 @@
         <v>1</v>
       </c>
       <c r="F155" s="24" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G155" s="3">
         <v>0</v>
@@ -9779,7 +9782,7 @@
         <v>279</v>
       </c>
       <c r="J155" s="24" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="156" s="3" customFormat="1" ht="16.5" spans="1:10">
@@ -9790,7 +9793,7 @@
         <v>155</v>
       </c>
       <c r="C156" s="25" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D156" s="3">
         <v>-1</v>
@@ -9799,7 +9802,7 @@
         <v>1</v>
       </c>
       <c r="F156" s="24" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="G156" s="3">
         <v>0</v>
@@ -9808,10 +9811,10 @@
         <v>33</v>
       </c>
       <c r="I156" s="24" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="J156" s="36" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="157" s="3" customFormat="1" ht="16.5" spans="1:14">
@@ -9822,7 +9825,7 @@
         <v>156</v>
       </c>
       <c r="C157" s="31" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D157" s="3">
         <v>-1</v>
@@ -9831,7 +9834,7 @@
         <v>1</v>
       </c>
       <c r="F157" s="24" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="G157" s="3">
         <v>1</v>
@@ -9840,13 +9843,13 @@
         <v>34</v>
       </c>
       <c r="I157" s="24" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="J157" s="24" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="L157" s="24" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="N157" s="3">
         <v>9</v>
@@ -9860,7 +9863,7 @@
         <v>157</v>
       </c>
       <c r="C158" s="31" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D158" s="3">
         <v>-1</v>
@@ -9869,7 +9872,7 @@
         <v>1</v>
       </c>
       <c r="F158" s="24" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="G158" s="3">
         <v>1</v>
@@ -9878,13 +9881,13 @@
         <v>34</v>
       </c>
       <c r="I158" s="24" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="J158" s="24" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="L158" s="24" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="N158" s="3">
         <v>9</v>
@@ -9898,7 +9901,7 @@
         <v>158</v>
       </c>
       <c r="C159" s="31" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D159" s="3">
         <v>-1</v>
@@ -9907,7 +9910,7 @@
         <v>1</v>
       </c>
       <c r="F159" s="24" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="G159" s="3">
         <v>1</v>
@@ -9916,13 +9919,13 @@
         <v>34</v>
       </c>
       <c r="I159" s="24" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="J159" s="24" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="L159" s="24" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="N159" s="3">
         <v>9</v>
@@ -9936,7 +9939,7 @@
         <v>159</v>
       </c>
       <c r="C160" s="31" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D160" s="3">
         <v>-1</v>
@@ -9945,7 +9948,7 @@
         <v>1</v>
       </c>
       <c r="F160" s="24" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="G160" s="3">
         <v>1</v>
@@ -9954,13 +9957,13 @@
         <v>34</v>
       </c>
       <c r="I160" s="24" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="J160" s="24" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="L160" s="24" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="N160" s="3">
         <v>9</v>
@@ -9974,7 +9977,7 @@
         <v>160</v>
       </c>
       <c r="C161" s="31" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D161" s="3">
         <v>-1</v>
@@ -9983,7 +9986,7 @@
         <v>1</v>
       </c>
       <c r="F161" s="24" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="G161" s="3">
         <v>1</v>
@@ -9992,13 +9995,13 @@
         <v>34</v>
       </c>
       <c r="I161" s="24" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="J161" s="24" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="L161" s="24" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="N161" s="3">
         <v>9</v>
@@ -10012,7 +10015,7 @@
         <v>161</v>
       </c>
       <c r="C162" s="32" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D162" s="2">
         <v>-1</v>
@@ -10021,7 +10024,7 @@
         <v>1</v>
       </c>
       <c r="F162" s="18" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="G162" s="2">
         <v>1</v>
@@ -10030,10 +10033,10 @@
         <v>34</v>
       </c>
       <c r="I162" s="18" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="J162" s="18" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="N162" s="2">
         <v>9</v>
@@ -10047,7 +10050,7 @@
         <v>162</v>
       </c>
       <c r="C163" s="32" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D163" s="2">
         <v>-1</v>
@@ -10056,7 +10059,7 @@
         <v>1</v>
       </c>
       <c r="F163" s="18" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G163" s="2">
         <v>1</v>
@@ -10065,10 +10068,10 @@
         <v>34</v>
       </c>
       <c r="I163" s="18" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="J163" s="18" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="N163" s="2">
         <v>9</v>
@@ -10082,7 +10085,7 @@
         <v>163</v>
       </c>
       <c r="C164" s="32" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D164" s="2">
         <v>-1</v>
@@ -10091,7 +10094,7 @@
         <v>1</v>
       </c>
       <c r="F164" s="18" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="G164" s="2">
         <v>1</v>
@@ -10100,10 +10103,10 @@
         <v>34</v>
       </c>
       <c r="I164" s="18" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="J164" s="18" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="N164" s="2">
         <v>9</v>
@@ -10117,7 +10120,7 @@
         <v>164</v>
       </c>
       <c r="C165" s="32" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D165" s="2">
         <v>-1</v>
@@ -10126,7 +10129,7 @@
         <v>1</v>
       </c>
       <c r="F165" s="18" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="G165" s="2">
         <v>1</v>
@@ -10135,10 +10138,10 @@
         <v>34</v>
       </c>
       <c r="I165" s="18" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="J165" s="18" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="N165" s="2">
         <v>9</v>
@@ -10152,7 +10155,7 @@
         <v>165</v>
       </c>
       <c r="C166" s="32" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D166" s="2">
         <v>-1</v>
@@ -10161,7 +10164,7 @@
         <v>1</v>
       </c>
       <c r="F166" s="18" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="G166" s="2">
         <v>1</v>
@@ -10170,10 +10173,10 @@
         <v>34</v>
       </c>
       <c r="I166" s="18" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="J166" s="18" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="N166" s="2">
         <v>9</v>
@@ -10187,7 +10190,7 @@
         <v>166</v>
       </c>
       <c r="C167" s="31" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D167" s="3">
         <v>-1</v>
@@ -10196,7 +10199,7 @@
         <v>1</v>
       </c>
       <c r="F167" s="24" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="G167" s="3">
         <v>1</v>
@@ -10205,10 +10208,10 @@
         <v>34</v>
       </c>
       <c r="I167" s="24" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="J167" s="24" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="N167" s="3">
         <v>9</v>
@@ -10222,7 +10225,7 @@
         <v>167</v>
       </c>
       <c r="C168" s="31" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D168" s="3">
         <v>-1</v>
@@ -10231,7 +10234,7 @@
         <v>1</v>
       </c>
       <c r="F168" s="24" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G168" s="3">
         <v>1</v>
@@ -10240,10 +10243,10 @@
         <v>34</v>
       </c>
       <c r="I168" s="24" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="J168" s="24" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="N168" s="3">
         <v>9</v>
@@ -10257,7 +10260,7 @@
         <v>168</v>
       </c>
       <c r="C169" s="31" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D169" s="3">
         <v>-1</v>
@@ -10266,7 +10269,7 @@
         <v>1</v>
       </c>
       <c r="F169" s="24" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="G169" s="3">
         <v>1</v>
@@ -10275,10 +10278,10 @@
         <v>34</v>
       </c>
       <c r="I169" s="24" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="J169" s="24" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="N169" s="3">
         <v>9</v>
@@ -10292,7 +10295,7 @@
         <v>169</v>
       </c>
       <c r="C170" s="31" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D170" s="3">
         <v>-1</v>
@@ -10301,7 +10304,7 @@
         <v>1</v>
       </c>
       <c r="F170" s="24" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="G170" s="3">
         <v>1</v>
@@ -10310,10 +10313,10 @@
         <v>34</v>
       </c>
       <c r="I170" s="24" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="J170" s="24" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="N170" s="3">
         <v>9</v>
@@ -10327,7 +10330,7 @@
         <v>170</v>
       </c>
       <c r="C171" s="31" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D171" s="3">
         <v>-1</v>
@@ -10336,7 +10339,7 @@
         <v>1</v>
       </c>
       <c r="F171" s="24" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="G171" s="3">
         <v>1</v>
@@ -10345,10 +10348,10 @@
         <v>34</v>
       </c>
       <c r="I171" s="24" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="J171" s="24" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="N171" s="3">
         <v>9</v>
@@ -10362,7 +10365,7 @@
         <v>171</v>
       </c>
       <c r="C172" s="31" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D172" s="3">
         <v>-1</v>
@@ -10371,7 +10374,7 @@
         <v>1</v>
       </c>
       <c r="F172" s="24" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="G172" s="3">
         <v>0</v>
@@ -10380,10 +10383,10 @@
         <v>33</v>
       </c>
       <c r="I172" s="24" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="J172" s="24" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="173" s="4" customFormat="1" spans="1:10">
@@ -10394,7 +10397,7 @@
         <v>172</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D173" s="4">
         <v>-1</v>
@@ -10403,7 +10406,7 @@
         <v>1</v>
       </c>
       <c r="F173" s="4" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="G173" s="4">
         <v>1</v>
@@ -10412,10 +10415,10 @@
         <v>33</v>
       </c>
       <c r="I173" s="4" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="J173" s="4" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="174" s="4" customFormat="1" spans="1:10">
@@ -10426,7 +10429,7 @@
         <v>173</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D174" s="4">
         <v>-1</v>
@@ -10435,7 +10438,7 @@
         <v>1</v>
       </c>
       <c r="F174" s="4" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="G174" s="4">
         <v>1</v>
@@ -10444,10 +10447,10 @@
         <v>33</v>
       </c>
       <c r="I174" s="4" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="J174" s="4" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="175" s="4" customFormat="1" spans="1:10">
@@ -10458,7 +10461,7 @@
         <v>174</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D175" s="4">
         <v>-1</v>
@@ -10467,7 +10470,7 @@
         <v>1</v>
       </c>
       <c r="F175" s="4" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="G175" s="4">
         <v>1</v>
@@ -10476,10 +10479,10 @@
         <v>33</v>
       </c>
       <c r="I175" s="4" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="J175" s="4" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="176" s="5" customFormat="1" spans="1:10">
@@ -10490,7 +10493,7 @@
         <v>175</v>
       </c>
       <c r="C176" s="33" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D176" s="5">
         <v>-1</v>
@@ -10499,7 +10502,7 @@
         <v>1</v>
       </c>
       <c r="F176" s="5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="G176" s="5">
         <v>0</v>
@@ -10508,10 +10511,10 @@
         <v>33</v>
       </c>
       <c r="I176" s="5" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="J176" s="5" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="177" s="6" customFormat="1" spans="1:10">
@@ -10522,7 +10525,7 @@
         <v>176</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D177" s="6">
         <v>-1</v>
@@ -10540,10 +10543,10 @@
         <v>33</v>
       </c>
       <c r="I177" s="6" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="J177" s="6" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="178" ht="16.5" spans="1:14">
@@ -10554,7 +10557,7 @@
         <v>177</v>
       </c>
       <c r="C178" s="19" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D178" s="10">
         <v>-1</v>
@@ -10563,7 +10566,7 @@
         <v>1</v>
       </c>
       <c r="F178" s="14" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="G178" s="10">
         <v>1</v>
@@ -10572,10 +10575,10 @@
         <v>32</v>
       </c>
       <c r="I178" s="14" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J178" s="14" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="K178" s="14"/>
       <c r="L178" s="14"/>
@@ -10591,7 +10594,7 @@
         <v>178</v>
       </c>
       <c r="C179" s="19" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D179" s="10">
         <v>-1</v>
@@ -10600,7 +10603,7 @@
         <v>1</v>
       </c>
       <c r="F179" s="14" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="G179" s="10">
         <v>1</v>
@@ -10609,10 +10612,10 @@
         <v>33</v>
       </c>
       <c r="I179" s="14" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="J179" s="14" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="K179" s="14"/>
       <c r="L179" s="14"/>
@@ -10628,7 +10631,7 @@
         <v>179</v>
       </c>
       <c r="C180" s="19" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D180" s="10">
         <v>-1</v>
@@ -10637,7 +10640,7 @@
         <v>1</v>
       </c>
       <c r="F180" s="14" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="G180" s="10">
         <v>1</v>
@@ -10646,10 +10649,10 @@
         <v>33</v>
       </c>
       <c r="I180" s="14" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="J180" s="14" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="K180" s="14"/>
       <c r="L180" s="14"/>
@@ -10665,7 +10668,7 @@
         <v>180</v>
       </c>
       <c r="C181" s="34" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D181" s="6">
         <v>-1</v>
@@ -10674,7 +10677,7 @@
         <v>1</v>
       </c>
       <c r="F181" s="6" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="G181" s="6">
         <v>0</v>
@@ -10683,10 +10686,10 @@
         <v>33</v>
       </c>
       <c r="I181" s="6" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="J181" s="6" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="182" s="5" customFormat="1" spans="1:15">
@@ -10697,7 +10700,7 @@
         <v>181</v>
       </c>
       <c r="C182" s="33" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D182" s="5">
         <v>-1</v>
@@ -10706,7 +10709,7 @@
         <v>1</v>
       </c>
       <c r="F182" s="5" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="G182" s="5">
         <v>1</v>
@@ -10715,13 +10718,13 @@
         <v>33</v>
       </c>
       <c r="I182" s="33" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="J182" s="5" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="L182" s="5" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="O182" s="5">
         <v>57</v>
@@ -10735,7 +10738,7 @@
         <v>182</v>
       </c>
       <c r="C183" s="33" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D183" s="5">
         <v>-1</v>
@@ -10744,7 +10747,7 @@
         <v>1</v>
       </c>
       <c r="F183" s="5" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G183" s="5">
         <v>1</v>
@@ -10753,13 +10756,13 @@
         <v>33</v>
       </c>
       <c r="I183" s="33" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="J183" s="33" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="L183" s="33" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="O183" s="5">
         <v>58</v>
@@ -10773,7 +10776,7 @@
         <v>183</v>
       </c>
       <c r="C184" s="33" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D184" s="5">
         <v>-1</v>
@@ -10791,13 +10794,13 @@
         <v>33</v>
       </c>
       <c r="I184" s="33" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="J184" s="33" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="L184" s="5" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="O184" s="5">
         <v>59</v>
@@ -10811,7 +10814,7 @@
         <v>184</v>
       </c>
       <c r="C185" s="35" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D185" s="7">
         <v>-1</v>
@@ -10820,7 +10823,7 @@
         <v>1</v>
       </c>
       <c r="F185" s="7" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="G185" s="7">
         <v>1</v>
@@ -10829,10 +10832,10 @@
         <v>1</v>
       </c>
       <c r="I185" s="35" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="J185" s="35" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="N185" s="7">
         <v>16</v>
@@ -10846,7 +10849,7 @@
         <v>185</v>
       </c>
       <c r="C186" s="7" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D186" s="7">
         <v>-1</v>
@@ -10855,7 +10858,7 @@
         <v>1</v>
       </c>
       <c r="F186" s="35" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="G186" s="7">
         <v>1</v>
@@ -10864,10 +10867,10 @@
         <v>2</v>
       </c>
       <c r="I186" s="35" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="J186" s="35" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="N186" s="7">
         <v>16</v>
@@ -10881,7 +10884,7 @@
         <v>186</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D187" s="7">
         <v>-1</v>
@@ -10890,7 +10893,7 @@
         <v>1</v>
       </c>
       <c r="F187" s="35" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G187" s="7">
         <v>1</v>
@@ -10899,10 +10902,10 @@
         <v>3</v>
       </c>
       <c r="I187" s="35" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="J187" s="35" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="N187" s="7">
         <v>16</v>
@@ -10916,7 +10919,7 @@
         <v>187</v>
       </c>
       <c r="C188" s="7" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D188" s="7">
         <v>-1</v>
@@ -10925,7 +10928,7 @@
         <v>1</v>
       </c>
       <c r="F188" s="35" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="G188" s="7">
         <v>1</v>
@@ -10934,10 +10937,10 @@
         <v>4</v>
       </c>
       <c r="I188" s="35" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="J188" s="35" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N188" s="7">
         <v>16</v>
@@ -10951,7 +10954,7 @@
         <v>188</v>
       </c>
       <c r="C189" s="35" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D189" s="7">
         <v>-1</v>
@@ -10960,7 +10963,7 @@
         <v>1</v>
       </c>
       <c r="F189" s="35" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="G189" s="7">
         <v>1</v>
@@ -10969,10 +10972,10 @@
         <v>5</v>
       </c>
       <c r="I189" s="35" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="J189" s="35" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="N189" s="7">
         <v>16</v>
@@ -10986,7 +10989,7 @@
         <v>189</v>
       </c>
       <c r="C190" s="35" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D190" s="7">
         <v>-1</v>
@@ -10995,7 +10998,7 @@
         <v>1</v>
       </c>
       <c r="F190" s="7" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="G190" s="7">
         <v>1</v>
@@ -11004,10 +11007,10 @@
         <v>6</v>
       </c>
       <c r="I190" s="35" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="J190" s="35" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="N190" s="7">
         <v>16</v>
@@ -11021,7 +11024,7 @@
         <v>190</v>
       </c>
       <c r="C191" s="35" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D191" s="7">
         <v>-1</v>
@@ -11030,7 +11033,7 @@
         <v>1</v>
       </c>
       <c r="F191" s="7" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="G191" s="7">
         <v>1</v>
@@ -11039,10 +11042,10 @@
         <v>7</v>
       </c>
       <c r="I191" s="35" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="J191" s="35" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="N191" s="7">
         <v>16</v>
@@ -11056,7 +11059,7 @@
         <v>191</v>
       </c>
       <c r="C192" s="35" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D192" s="7">
         <v>-1</v>
@@ -11065,7 +11068,7 @@
         <v>1</v>
       </c>
       <c r="F192" s="7" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="G192" s="7">
         <v>1</v>
@@ -11074,10 +11077,10 @@
         <v>8</v>
       </c>
       <c r="I192" s="35" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="J192" s="35" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="N192" s="7">
         <v>16</v>
@@ -11091,7 +11094,7 @@
         <v>192</v>
       </c>
       <c r="C193" s="35" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D193" s="7">
         <v>-1</v>
@@ -11100,7 +11103,7 @@
         <v>1</v>
       </c>
       <c r="F193" s="7" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="G193" s="7">
         <v>1</v>
@@ -11109,10 +11112,10 @@
         <v>9</v>
       </c>
       <c r="I193" s="35" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="J193" s="35" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="N193" s="7">
         <v>16</v>
@@ -11126,7 +11129,7 @@
         <v>193</v>
       </c>
       <c r="C194" s="35" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="D194" s="7">
         <v>-1</v>
@@ -11135,7 +11138,7 @@
         <v>1</v>
       </c>
       <c r="F194" s="7" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="G194" s="7">
         <v>1</v>
@@ -11144,10 +11147,10 @@
         <v>10</v>
       </c>
       <c r="I194" s="35" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J194" s="35" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="N194" s="7">
         <v>16</v>
@@ -11161,7 +11164,7 @@
         <v>194</v>
       </c>
       <c r="C195" s="35" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D195" s="7">
         <v>-1</v>
@@ -11170,7 +11173,7 @@
         <v>1</v>
       </c>
       <c r="F195" s="7" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="G195" s="7">
         <v>1</v>
@@ -11179,10 +11182,10 @@
         <v>11</v>
       </c>
       <c r="I195" s="35" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="J195" s="35" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="N195" s="7">
         <v>16</v>
@@ -11196,7 +11199,7 @@
         <v>195</v>
       </c>
       <c r="C196" s="35" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D196" s="7">
         <v>-1</v>
@@ -11205,7 +11208,7 @@
         <v>1</v>
       </c>
       <c r="F196" s="7" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="G196" s="7">
         <v>1</v>
@@ -11214,10 +11217,10 @@
         <v>12</v>
       </c>
       <c r="I196" s="35" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="J196" s="35" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="N196" s="7">
         <v>16</v>
@@ -11231,7 +11234,7 @@
         <v>196</v>
       </c>
       <c r="C197" s="35" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D197" s="7">
         <v>-1</v>
@@ -11240,7 +11243,7 @@
         <v>1</v>
       </c>
       <c r="F197" s="7" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="G197" s="7">
         <v>1</v>
@@ -11249,10 +11252,10 @@
         <v>13</v>
       </c>
       <c r="I197" s="35" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="J197" s="35" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="N197" s="7">
         <v>16</v>
@@ -11266,7 +11269,7 @@
         <v>197</v>
       </c>
       <c r="C198" s="35" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D198" s="7">
         <v>-1</v>
@@ -11275,7 +11278,7 @@
         <v>1</v>
       </c>
       <c r="F198" s="7" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="G198" s="7">
         <v>1</v>
@@ -11284,10 +11287,10 @@
         <v>14</v>
       </c>
       <c r="I198" s="35" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="J198" s="35" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="N198" s="7">
         <v>16</v>
@@ -11301,7 +11304,7 @@
         <v>198</v>
       </c>
       <c r="C199" s="35" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D199" s="7">
         <v>-1</v>
@@ -11310,7 +11313,7 @@
         <v>1</v>
       </c>
       <c r="F199" s="7" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="G199" s="7">
         <v>1</v>
@@ -11319,10 +11322,10 @@
         <v>15</v>
       </c>
       <c r="I199" s="35" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="J199" s="35" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="N199" s="7">
         <v>16</v>
@@ -11336,7 +11339,7 @@
         <v>199</v>
       </c>
       <c r="C200" s="35" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D200" s="7">
         <v>-1</v>
@@ -11345,7 +11348,7 @@
         <v>1</v>
       </c>
       <c r="F200" s="7" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="G200" s="7">
         <v>1</v>
@@ -11354,10 +11357,10 @@
         <v>16</v>
       </c>
       <c r="I200" s="35" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="J200" s="35" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="N200" s="7">
         <v>16</v>
@@ -11371,7 +11374,7 @@
         <v>200</v>
       </c>
       <c r="C201" s="35" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D201" s="7">
         <v>-1</v>
@@ -11380,7 +11383,7 @@
         <v>1</v>
       </c>
       <c r="F201" s="7" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="G201" s="7">
         <v>1</v>
@@ -11389,10 +11392,10 @@
         <v>17</v>
       </c>
       <c r="I201" s="35" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="J201" s="35" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="N201" s="7">
         <v>16</v>
@@ -11406,7 +11409,7 @@
         <v>201</v>
       </c>
       <c r="C202" s="35" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="D202" s="7">
         <v>-1</v>
@@ -11415,7 +11418,7 @@
         <v>1</v>
       </c>
       <c r="F202" s="7" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="G202" s="7">
         <v>1</v>
@@ -11424,10 +11427,10 @@
         <v>18</v>
       </c>
       <c r="I202" s="35" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="J202" s="35" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="N202" s="7">
         <v>16</v>
@@ -11441,7 +11444,7 @@
         <v>202</v>
       </c>
       <c r="C203" s="35" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="D203" s="7">
         <v>-1</v>
@@ -11450,7 +11453,7 @@
         <v>1</v>
       </c>
       <c r="F203" s="7" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="G203" s="7">
         <v>1</v>
@@ -11459,10 +11462,10 @@
         <v>19</v>
       </c>
       <c r="I203" s="35" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="J203" s="35" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="N203" s="7">
         <v>16</v>
@@ -11476,7 +11479,7 @@
         <v>203</v>
       </c>
       <c r="C204" s="35" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="D204" s="7">
         <v>-1</v>
@@ -11485,7 +11488,7 @@
         <v>1</v>
       </c>
       <c r="F204" s="7" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="G204" s="7">
         <v>1</v>
@@ -11494,10 +11497,10 @@
         <v>20</v>
       </c>
       <c r="I204" s="35" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="J204" s="35" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="N204" s="7">
         <v>16</v>
@@ -11511,7 +11514,7 @@
         <v>204</v>
       </c>
       <c r="C205" s="35" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D205" s="7">
         <v>-1</v>
@@ -11520,7 +11523,7 @@
         <v>1</v>
       </c>
       <c r="F205" s="7" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="G205" s="7">
         <v>1</v>
@@ -11529,10 +11532,10 @@
         <v>21</v>
       </c>
       <c r="I205" s="35" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="J205" s="35" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="N205" s="7">
         <v>16</v>
@@ -11546,7 +11549,7 @@
         <v>205</v>
       </c>
       <c r="C206" s="35" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="D206" s="7">
         <v>-1</v>
@@ -11555,7 +11558,7 @@
         <v>1</v>
       </c>
       <c r="F206" s="7" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="G206" s="7">
         <v>1</v>
@@ -11564,10 +11567,10 @@
         <v>22</v>
       </c>
       <c r="I206" s="35" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="J206" s="35" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="N206" s="7">
         <v>16</v>
@@ -11581,7 +11584,7 @@
         <v>206</v>
       </c>
       <c r="C207" s="35" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="D207" s="7">
         <v>-1</v>
@@ -11590,7 +11593,7 @@
         <v>1</v>
       </c>
       <c r="F207" s="7" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="G207" s="7">
         <v>1</v>
@@ -11599,10 +11602,10 @@
         <v>23</v>
       </c>
       <c r="I207" s="35" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="J207" s="35" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="N207" s="7">
         <v>16</v>
@@ -11616,7 +11619,7 @@
         <v>207</v>
       </c>
       <c r="C208" s="35" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="D208" s="7">
         <v>-1</v>
@@ -11625,7 +11628,7 @@
         <v>1</v>
       </c>
       <c r="F208" s="7" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="G208" s="7">
         <v>1</v>
@@ -11634,10 +11637,10 @@
         <v>24</v>
       </c>
       <c r="I208" s="35" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="J208" s="35" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="N208" s="7">
         <v>16</v>
@@ -11651,7 +11654,7 @@
         <v>208</v>
       </c>
       <c r="C209" s="35" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D209" s="7">
         <v>-1</v>
@@ -11660,7 +11663,7 @@
         <v>1</v>
       </c>
       <c r="F209" s="7" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="G209" s="7">
         <v>1</v>
@@ -11669,10 +11672,10 @@
         <v>25</v>
       </c>
       <c r="I209" s="35" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="J209" s="35" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="N209" s="7">
         <v>16</v>
@@ -11686,7 +11689,7 @@
         <v>209</v>
       </c>
       <c r="C210" s="35" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="D210" s="7">
         <v>-1</v>
@@ -11695,7 +11698,7 @@
         <v>1</v>
       </c>
       <c r="F210" s="7" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="G210" s="7">
         <v>1</v>
@@ -11704,10 +11707,10 @@
         <v>26</v>
       </c>
       <c r="I210" s="35" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="J210" s="35" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="N210" s="7">
         <v>16</v>
@@ -11721,7 +11724,7 @@
         <v>210</v>
       </c>
       <c r="C211" s="35" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="D211" s="7">
         <v>-1</v>
@@ -11730,7 +11733,7 @@
         <v>1</v>
       </c>
       <c r="F211" s="7" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="G211" s="7">
         <v>1</v>
@@ -11739,10 +11742,10 @@
         <v>27</v>
       </c>
       <c r="I211" s="35" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="J211" s="35" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="N211" s="7">
         <v>16</v>
@@ -11756,7 +11759,7 @@
         <v>211</v>
       </c>
       <c r="C212" s="35" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="D212" s="7">
         <v>-1</v>
@@ -11765,7 +11768,7 @@
         <v>1</v>
       </c>
       <c r="F212" s="7" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="G212" s="7">
         <v>1</v>
@@ -11774,10 +11777,10 @@
         <v>28</v>
       </c>
       <c r="I212" s="35" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="J212" s="35" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="N212" s="7">
         <v>16</v>
@@ -11791,7 +11794,7 @@
         <v>212</v>
       </c>
       <c r="C213" s="35" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="D213" s="7">
         <v>-1</v>
@@ -11800,7 +11803,7 @@
         <v>1</v>
       </c>
       <c r="F213" s="7" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G213" s="7">
         <v>1</v>
@@ -11809,10 +11812,10 @@
         <v>29</v>
       </c>
       <c r="I213" s="35" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="J213" s="35" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="N213" s="7">
         <v>16</v>
@@ -11826,7 +11829,7 @@
         <v>213</v>
       </c>
       <c r="C214" s="35" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="D214" s="7">
         <v>-1</v>
@@ -11835,7 +11838,7 @@
         <v>1</v>
       </c>
       <c r="F214" s="7" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G214" s="7">
         <v>1</v>
@@ -11844,10 +11847,10 @@
         <v>30</v>
       </c>
       <c r="I214" s="35" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="J214" s="35" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="N214" s="7">
         <v>16</v>
@@ -11861,7 +11864,7 @@
         <v>214</v>
       </c>
       <c r="C215" s="35" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="D215" s="7">
         <v>-1</v>
@@ -11870,7 +11873,7 @@
         <v>1</v>
       </c>
       <c r="F215" s="7" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G215" s="7">
         <v>1</v>
@@ -11879,10 +11882,10 @@
         <v>31</v>
       </c>
       <c r="I215" s="35" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="J215" s="35" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="N215" s="7">
         <v>16</v>
@@ -11896,7 +11899,7 @@
         <v>215</v>
       </c>
       <c r="C216" s="35" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="D216" s="7">
         <v>-1</v>
@@ -11905,7 +11908,7 @@
         <v>1</v>
       </c>
       <c r="F216" s="7" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G216" s="7">
         <v>1</v>
@@ -11914,10 +11917,10 @@
         <v>32</v>
       </c>
       <c r="I216" s="35" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="J216" s="35" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="N216" s="7">
         <v>16</v>
@@ -11931,7 +11934,7 @@
         <v>216</v>
       </c>
       <c r="C217" s="35" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="D217" s="7">
         <v>-1</v>
@@ -11940,7 +11943,7 @@
         <v>1</v>
       </c>
       <c r="F217" s="7" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G217" s="7">
         <v>1</v>
@@ -11949,10 +11952,10 @@
         <v>33</v>
       </c>
       <c r="I217" s="35" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="J217" s="35" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="N217" s="7">
         <v>16</v>
@@ -11966,7 +11969,7 @@
         <v>217</v>
       </c>
       <c r="C218" s="35" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="D218" s="7">
         <v>-1</v>
@@ -11975,7 +11978,7 @@
         <v>1</v>
       </c>
       <c r="F218" s="7" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G218" s="7">
         <v>1</v>
@@ -11984,10 +11987,10 @@
         <v>34</v>
       </c>
       <c r="I218" s="35" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="J218" s="35" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="N218" s="7">
         <v>16</v>
@@ -12001,7 +12004,7 @@
         <v>218</v>
       </c>
       <c r="C219" s="35" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D219" s="7">
         <v>-1</v>
@@ -12010,7 +12013,7 @@
         <v>1</v>
       </c>
       <c r="F219" s="7" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G219" s="7">
         <v>1</v>
@@ -12019,10 +12022,10 @@
         <v>35</v>
       </c>
       <c r="I219" s="35" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="J219" s="35" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="N219" s="7">
         <v>16</v>
@@ -12036,7 +12039,7 @@
         <v>219</v>
       </c>
       <c r="C220" s="35" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="D220" s="7">
         <v>-1</v>
@@ -12045,7 +12048,7 @@
         <v>1</v>
       </c>
       <c r="F220" s="35" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G220" s="7">
         <v>1</v>
@@ -12054,10 +12057,10 @@
         <v>36</v>
       </c>
       <c r="I220" s="35" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="J220" s="35" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="N220" s="7">
         <v>16</v>
@@ -12071,7 +12074,7 @@
         <v>220</v>
       </c>
       <c r="C221" s="35" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="D221" s="7">
         <v>-1</v>
@@ -12080,7 +12083,7 @@
         <v>1</v>
       </c>
       <c r="F221" s="35" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="G221" s="7">
         <v>1</v>
@@ -12089,10 +12092,10 @@
         <v>38</v>
       </c>
       <c r="I221" s="35" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="J221" s="35" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="N221" s="7">
         <v>16</v>
@@ -12106,7 +12109,7 @@
         <v>221</v>
       </c>
       <c r="C222" s="7" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D222" s="7">
         <v>-1</v>
@@ -12115,7 +12118,7 @@
         <v>1</v>
       </c>
       <c r="F222" s="7" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="G222" s="7">
         <v>1</v>
@@ -12124,10 +12127,10 @@
         <v>39</v>
       </c>
       <c r="I222" s="35" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="J222" s="35" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="N222" s="7">
         <v>16</v>
@@ -12141,7 +12144,7 @@
         <v>222</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D223" s="7">
         <v>-1</v>
@@ -12150,7 +12153,7 @@
         <v>1</v>
       </c>
       <c r="F223" s="7" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="G223" s="7">
         <v>1</v>
@@ -12159,10 +12162,10 @@
         <v>40</v>
       </c>
       <c r="I223" s="35" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="J223" s="35" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="N223" s="7">
         <v>16</v>
@@ -12176,7 +12179,7 @@
         <v>223</v>
       </c>
       <c r="C224" s="7" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="D224" s="7">
         <v>-1</v>
@@ -12185,7 +12188,7 @@
         <v>1</v>
       </c>
       <c r="F224" s="7" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="G224" s="7">
         <v>1</v>
@@ -12194,10 +12197,10 @@
         <v>41</v>
       </c>
       <c r="I224" s="35" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="J224" s="35" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="N224" s="7">
         <v>16</v>
@@ -12211,7 +12214,7 @@
         <v>224</v>
       </c>
       <c r="C225" s="7" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="D225" s="7">
         <v>-1</v>
@@ -12220,7 +12223,7 @@
         <v>1</v>
       </c>
       <c r="F225" s="7" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="G225" s="7">
         <v>1</v>
@@ -12229,10 +12232,10 @@
         <v>42</v>
       </c>
       <c r="I225" s="35" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="J225" s="35" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="N225" s="7">
         <v>16</v>
@@ -12246,7 +12249,7 @@
         <v>225</v>
       </c>
       <c r="C226" s="7" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="D226" s="7">
         <v>-1</v>
@@ -12255,7 +12258,7 @@
         <v>1</v>
       </c>
       <c r="F226" s="7" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="G226" s="7">
         <v>1</v>
@@ -12264,10 +12267,10 @@
         <v>43</v>
       </c>
       <c r="I226" s="35" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="J226" s="35" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="N226" s="7">
         <v>16</v>
@@ -12281,7 +12284,7 @@
         <v>226</v>
       </c>
       <c r="C227" s="7" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="D227" s="7">
         <v>-1</v>
@@ -12290,7 +12293,7 @@
         <v>1</v>
       </c>
       <c r="F227" s="7" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="G227" s="7">
         <v>1</v>
@@ -12299,10 +12302,10 @@
         <v>44</v>
       </c>
       <c r="I227" s="35" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="J227" s="35" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="N227" s="7">
         <v>16</v>
@@ -12316,7 +12319,7 @@
         <v>227</v>
       </c>
       <c r="C228" s="7" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="D228" s="7">
         <v>-1</v>
@@ -12325,7 +12328,7 @@
         <v>1</v>
       </c>
       <c r="F228" s="7" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="G228" s="7">
         <v>1</v>
@@ -12334,10 +12337,10 @@
         <v>45</v>
       </c>
       <c r="I228" s="35" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="J228" s="35" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="N228" s="7">
         <v>16</v>
@@ -12351,7 +12354,7 @@
         <v>228</v>
       </c>
       <c r="C229" s="7" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D229" s="7">
         <v>-1</v>
@@ -12360,7 +12363,7 @@
         <v>1</v>
       </c>
       <c r="F229" s="7" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="G229" s="7">
         <v>1</v>
@@ -12369,10 +12372,10 @@
         <v>46</v>
       </c>
       <c r="I229" s="35" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="J229" s="35" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="N229" s="7">
         <v>16</v>
@@ -12386,7 +12389,7 @@
         <v>229</v>
       </c>
       <c r="C230" s="7" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="D230" s="7">
         <v>-1</v>
@@ -12395,7 +12398,7 @@
         <v>1</v>
       </c>
       <c r="F230" s="7" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="G230" s="7">
         <v>1</v>
@@ -12404,10 +12407,10 @@
         <v>47</v>
       </c>
       <c r="I230" s="35" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="J230" s="35" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="N230" s="7">
         <v>16</v>
@@ -12421,7 +12424,7 @@
         <v>230</v>
       </c>
       <c r="C231" s="7" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="D231" s="7">
         <v>-1</v>
@@ -12430,7 +12433,7 @@
         <v>1</v>
       </c>
       <c r="F231" s="7" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="G231" s="7">
         <v>1</v>
@@ -12439,10 +12442,10 @@
         <v>48</v>
       </c>
       <c r="I231" s="35" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="J231" s="35" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="N231" s="7">
         <v>16</v>
@@ -12456,7 +12459,7 @@
         <v>231</v>
       </c>
       <c r="C232" s="7" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="D232" s="7">
         <v>-1</v>
@@ -12465,7 +12468,7 @@
         <v>1</v>
       </c>
       <c r="F232" s="7" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="G232" s="7">
         <v>1</v>
@@ -12474,10 +12477,10 @@
         <v>49</v>
       </c>
       <c r="I232" s="35" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="J232" s="35" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="N232" s="7">
         <v>16</v>
@@ -12491,7 +12494,7 @@
         <v>232</v>
       </c>
       <c r="C233" s="7" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="D233" s="7">
         <v>-1</v>
@@ -12500,7 +12503,7 @@
         <v>1</v>
       </c>
       <c r="F233" s="7" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="G233" s="7">
         <v>1</v>
@@ -12509,10 +12512,10 @@
         <v>50</v>
       </c>
       <c r="I233" s="35" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="J233" s="35" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="N233" s="7">
         <v>16</v>
@@ -12526,7 +12529,7 @@
         <v>233</v>
       </c>
       <c r="C234" s="7" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D234" s="7">
         <v>-1</v>
@@ -12535,7 +12538,7 @@
         <v>1</v>
       </c>
       <c r="F234" s="7" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="G234" s="7">
         <v>1</v>
@@ -12544,10 +12547,10 @@
         <v>51</v>
       </c>
       <c r="I234" s="35" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="J234" s="35" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="N234" s="7">
         <v>16</v>
@@ -12561,7 +12564,7 @@
         <v>234</v>
       </c>
       <c r="C235" s="7" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="D235" s="7">
         <v>-1</v>
@@ -12570,7 +12573,7 @@
         <v>1</v>
       </c>
       <c r="F235" s="7" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="G235" s="7">
         <v>1</v>
@@ -12579,10 +12582,10 @@
         <v>52</v>
       </c>
       <c r="I235" s="35" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="J235" s="35" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="N235" s="7">
         <v>16</v>
@@ -12596,7 +12599,7 @@
         <v>235</v>
       </c>
       <c r="C236" s="7" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="D236" s="7">
         <v>-1</v>
@@ -12605,7 +12608,7 @@
         <v>1</v>
       </c>
       <c r="F236" s="7" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="G236" s="7">
         <v>1</v>
@@ -12614,10 +12617,10 @@
         <v>53</v>
       </c>
       <c r="I236" s="35" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="J236" s="35" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="N236" s="7">
         <v>16</v>
@@ -12631,7 +12634,7 @@
         <v>236</v>
       </c>
       <c r="C237" s="7" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="D237" s="7">
         <v>-1</v>
@@ -12640,7 +12643,7 @@
         <v>1</v>
       </c>
       <c r="F237" s="7" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="G237" s="7">
         <v>1</v>
@@ -12649,10 +12652,10 @@
         <v>54</v>
       </c>
       <c r="I237" s="35" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="J237" s="35" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="N237" s="7">
         <v>16</v>
@@ -12666,7 +12669,7 @@
         <v>237</v>
       </c>
       <c r="C238" s="7" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="D238" s="7">
         <v>-1</v>
@@ -12675,7 +12678,7 @@
         <v>1</v>
       </c>
       <c r="F238" s="7" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="G238" s="7">
         <v>1</v>
@@ -12684,10 +12687,10 @@
         <v>55</v>
       </c>
       <c r="I238" s="35" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="J238" s="35" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="N238" s="7">
         <v>16</v>
@@ -12701,7 +12704,7 @@
         <v>238</v>
       </c>
       <c r="C239" s="7" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="D239" s="7">
         <v>-1</v>
@@ -12710,7 +12713,7 @@
         <v>1</v>
       </c>
       <c r="F239" s="7" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="G239" s="7">
         <v>1</v>
@@ -12719,10 +12722,10 @@
         <v>56</v>
       </c>
       <c r="I239" s="35" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="J239" s="35" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="N239" s="7">
         <v>16</v>
@@ -12736,7 +12739,7 @@
         <v>239</v>
       </c>
       <c r="C240" s="7" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="D240" s="7">
         <v>-1</v>
@@ -12745,7 +12748,7 @@
         <v>1</v>
       </c>
       <c r="F240" s="7" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="G240" s="7">
         <v>1</v>
@@ -12754,10 +12757,10 @@
         <v>57</v>
       </c>
       <c r="I240" s="35" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="J240" s="35" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="N240" s="7">
         <v>16</v>
@@ -12771,7 +12774,7 @@
         <v>240</v>
       </c>
       <c r="C241" s="7" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="D241" s="7">
         <v>-1</v>
@@ -12780,7 +12783,7 @@
         <v>1</v>
       </c>
       <c r="F241" s="7" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="G241" s="7">
         <v>1</v>
@@ -12789,10 +12792,10 @@
         <v>58</v>
       </c>
       <c r="I241" s="35" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="J241" s="35" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="N241" s="7">
         <v>16</v>
@@ -12806,7 +12809,7 @@
         <v>241</v>
       </c>
       <c r="C242" s="7" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="D242" s="7">
         <v>-1</v>
@@ -12815,7 +12818,7 @@
         <v>1</v>
       </c>
       <c r="F242" s="7" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="G242" s="7">
         <v>1</v>
@@ -12824,10 +12827,10 @@
         <v>59</v>
       </c>
       <c r="I242" s="35" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="J242" s="35" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="N242" s="7">
         <v>16</v>
@@ -12841,7 +12844,7 @@
         <v>242</v>
       </c>
       <c r="C243" s="7" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="D243" s="7">
         <v>-1</v>
@@ -12850,7 +12853,7 @@
         <v>1</v>
       </c>
       <c r="F243" s="7" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="G243" s="7">
         <v>1</v>
@@ -12859,10 +12862,10 @@
         <v>60</v>
       </c>
       <c r="I243" s="35" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="J243" s="35" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="N243" s="7">
         <v>16</v>
@@ -12876,7 +12879,7 @@
         <v>243</v>
       </c>
       <c r="C244" s="7" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D244" s="7">
         <v>-1</v>
@@ -12885,7 +12888,7 @@
         <v>1</v>
       </c>
       <c r="F244" s="7" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="G244" s="7">
         <v>1</v>
@@ -12894,10 +12897,10 @@
         <v>61</v>
       </c>
       <c r="I244" s="35" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="J244" s="35" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="N244" s="7">
         <v>16</v>
@@ -12911,7 +12914,7 @@
         <v>244</v>
       </c>
       <c r="C245" s="7" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="D245" s="7">
         <v>-1</v>
@@ -12920,7 +12923,7 @@
         <v>1</v>
       </c>
       <c r="F245" s="7" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G245" s="7">
         <v>1</v>
@@ -12929,10 +12932,10 @@
         <v>62</v>
       </c>
       <c r="I245" s="35" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="J245" s="35" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="N245" s="7">
         <v>16</v>
@@ -12946,7 +12949,7 @@
         <v>245</v>
       </c>
       <c r="C246" s="7" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="D246" s="7">
         <v>-1</v>
@@ -12955,7 +12958,7 @@
         <v>1</v>
       </c>
       <c r="F246" s="7" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G246" s="7">
         <v>1</v>
@@ -12964,10 +12967,10 @@
         <v>63</v>
       </c>
       <c r="I246" s="35" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="J246" s="35" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="N246" s="7">
         <v>16</v>
@@ -12981,7 +12984,7 @@
         <v>246</v>
       </c>
       <c r="C247" s="7" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="D247" s="7">
         <v>-1</v>
@@ -12990,7 +12993,7 @@
         <v>1</v>
       </c>
       <c r="F247" s="7" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G247" s="7">
         <v>1</v>
@@ -12999,10 +13002,10 @@
         <v>64</v>
       </c>
       <c r="I247" s="35" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="J247" s="35" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="N247" s="7">
         <v>16</v>
@@ -13016,7 +13019,7 @@
         <v>247</v>
       </c>
       <c r="C248" s="7" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="D248" s="7">
         <v>-1</v>
@@ -13025,7 +13028,7 @@
         <v>1</v>
       </c>
       <c r="F248" s="7" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G248" s="7">
         <v>1</v>
@@ -13034,10 +13037,10 @@
         <v>65</v>
       </c>
       <c r="I248" s="35" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="J248" s="35" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="N248" s="7">
         <v>16</v>
@@ -13051,7 +13054,7 @@
         <v>248</v>
       </c>
       <c r="C249" s="7" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="D249" s="7">
         <v>-1</v>
@@ -13060,7 +13063,7 @@
         <v>1</v>
       </c>
       <c r="F249" s="7" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G249" s="7">
         <v>1</v>
@@ -13069,10 +13072,10 @@
         <v>66</v>
       </c>
       <c r="I249" s="35" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="J249" s="35" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="N249" s="7">
         <v>16</v>
@@ -13086,7 +13089,7 @@
         <v>249</v>
       </c>
       <c r="C250" s="7" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D250" s="7">
         <v>-1</v>
@@ -13095,7 +13098,7 @@
         <v>1</v>
       </c>
       <c r="F250" s="7" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G250" s="7">
         <v>1</v>
@@ -13104,10 +13107,10 @@
         <v>67</v>
       </c>
       <c r="I250" s="35" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="J250" s="35" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="N250" s="7">
         <v>16</v>
@@ -13121,7 +13124,7 @@
         <v>250</v>
       </c>
       <c r="C251" s="7" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="D251" s="7">
         <v>-1</v>
@@ -13130,7 +13133,7 @@
         <v>1</v>
       </c>
       <c r="F251" s="7" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G251" s="7">
         <v>1</v>
@@ -13139,10 +13142,10 @@
         <v>68</v>
       </c>
       <c r="I251" s="35" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="J251" s="35" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="N251" s="7">
         <v>16</v>
@@ -13156,7 +13159,7 @@
         <v>251</v>
       </c>
       <c r="C252" s="35" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="D252" s="7">
         <v>-1</v>
@@ -13165,7 +13168,7 @@
         <v>1</v>
       </c>
       <c r="F252" s="35" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G252" s="7">
         <v>1</v>
@@ -13174,10 +13177,10 @@
         <v>68</v>
       </c>
       <c r="I252" s="35" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="J252" s="35" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="N252" s="7">
         <v>16</v>
@@ -13191,7 +13194,7 @@
         <v>252</v>
       </c>
       <c r="C253" s="35" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="D253" s="7">
         <v>-1</v>
@@ -13200,7 +13203,7 @@
         <v>1</v>
       </c>
       <c r="F253" s="35" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="G253" s="7">
         <v>1</v>
@@ -13209,10 +13212,10 @@
         <v>69</v>
       </c>
       <c r="I253" s="35" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="J253" s="35" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="N253" s="7">
         <v>16</v>
@@ -13226,7 +13229,7 @@
         <v>253</v>
       </c>
       <c r="C254" s="35" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="D254" s="7">
         <v>-1</v>
@@ -13235,7 +13238,7 @@
         <v>1</v>
       </c>
       <c r="F254" s="7" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="G254" s="7">
         <v>1</v>
@@ -13244,10 +13247,10 @@
         <v>70</v>
       </c>
       <c r="I254" s="35" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="J254" s="35" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="N254" s="7">
         <v>16</v>
@@ -13261,7 +13264,7 @@
         <v>254</v>
       </c>
       <c r="C255" s="35" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="D255" s="7">
         <v>-1</v>
@@ -13270,7 +13273,7 @@
         <v>1</v>
       </c>
       <c r="F255" s="7" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="G255" s="7">
         <v>1</v>
@@ -13279,10 +13282,10 @@
         <v>71</v>
       </c>
       <c r="I255" s="35" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="J255" s="35" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="N255" s="7">
         <v>16</v>
@@ -13296,7 +13299,7 @@
         <v>255</v>
       </c>
       <c r="C256" s="35" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="D256" s="7">
         <v>-1</v>
@@ -13305,7 +13308,7 @@
         <v>1</v>
       </c>
       <c r="F256" s="7" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="G256" s="7">
         <v>1</v>
@@ -13314,10 +13317,10 @@
         <v>72</v>
       </c>
       <c r="I256" s="35" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="J256" s="35" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="N256" s="7">
         <v>16</v>
@@ -13331,7 +13334,7 @@
         <v>256</v>
       </c>
       <c r="C257" s="35" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="D257" s="7">
         <v>-1</v>
@@ -13340,7 +13343,7 @@
         <v>1</v>
       </c>
       <c r="F257" s="7" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="G257" s="7">
         <v>1</v>
@@ -13349,10 +13352,10 @@
         <v>73</v>
       </c>
       <c r="I257" s="35" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="J257" s="35" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="N257" s="7">
         <v>16</v>
@@ -13366,7 +13369,7 @@
         <v>257</v>
       </c>
       <c r="C258" s="35" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="D258" s="7">
         <v>-1</v>
@@ -13375,7 +13378,7 @@
         <v>1</v>
       </c>
       <c r="F258" s="7" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="G258" s="7">
         <v>1</v>
@@ -13384,10 +13387,10 @@
         <v>74</v>
       </c>
       <c r="I258" s="35" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="J258" s="35" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="N258" s="7">
         <v>16</v>
@@ -13401,7 +13404,7 @@
         <v>258</v>
       </c>
       <c r="C259" s="35" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="D259" s="7">
         <v>-1</v>
@@ -13410,7 +13413,7 @@
         <v>1</v>
       </c>
       <c r="F259" s="7" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="G259" s="7">
         <v>1</v>
@@ -13419,10 +13422,10 @@
         <v>75</v>
       </c>
       <c r="I259" s="35" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="J259" s="35" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="N259" s="7">
         <v>16</v>
@@ -13436,7 +13439,7 @@
         <v>259</v>
       </c>
       <c r="C260" s="35" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="D260" s="7">
         <v>-1</v>
@@ -13445,7 +13448,7 @@
         <v>1</v>
       </c>
       <c r="F260" s="7" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="G260" s="7">
         <v>1</v>
@@ -13454,10 +13457,10 @@
         <v>76</v>
       </c>
       <c r="I260" s="35" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="J260" s="35" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="N260" s="7">
         <v>16</v>
@@ -13471,7 +13474,7 @@
         <v>260</v>
       </c>
       <c r="C261" s="35" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="D261" s="7">
         <v>-1</v>
@@ -13480,7 +13483,7 @@
         <v>1</v>
       </c>
       <c r="F261" s="7" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="G261" s="7">
         <v>1</v>
@@ -13489,10 +13492,10 @@
         <v>77</v>
       </c>
       <c r="I261" s="35" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="J261" s="35" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="N261" s="7">
         <v>16</v>
@@ -13506,7 +13509,7 @@
         <v>261</v>
       </c>
       <c r="C262" s="35" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="D262" s="7">
         <v>-1</v>
@@ -13515,7 +13518,7 @@
         <v>1</v>
       </c>
       <c r="F262" s="7" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="G262" s="7">
         <v>1</v>
@@ -13524,10 +13527,10 @@
         <v>78</v>
       </c>
       <c r="I262" s="35" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="J262" s="35" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="N262" s="7">
         <v>16</v>
@@ -13541,7 +13544,7 @@
         <v>262</v>
       </c>
       <c r="C263" s="35" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="D263" s="7">
         <v>-1</v>
@@ -13550,7 +13553,7 @@
         <v>1</v>
       </c>
       <c r="F263" s="7" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="G263" s="7">
         <v>1</v>
@@ -13559,10 +13562,10 @@
         <v>79</v>
       </c>
       <c r="I263" s="35" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="J263" s="35" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="N263" s="7">
         <v>16</v>
@@ -13576,7 +13579,7 @@
         <v>263</v>
       </c>
       <c r="C264" s="35" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="D264" s="7">
         <v>-1</v>
@@ -13585,7 +13588,7 @@
         <v>1</v>
       </c>
       <c r="F264" s="7" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="G264" s="7">
         <v>1</v>
@@ -13594,10 +13597,10 @@
         <v>80</v>
       </c>
       <c r="I264" s="35" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="J264" s="35" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="N264" s="7">
         <v>16</v>
@@ -13611,7 +13614,7 @@
         <v>264</v>
       </c>
       <c r="C265" s="35" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D265" s="7">
         <v>-1</v>
@@ -13620,7 +13623,7 @@
         <v>1</v>
       </c>
       <c r="F265" s="7" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="G265" s="7">
         <v>1</v>
@@ -13629,10 +13632,10 @@
         <v>81</v>
       </c>
       <c r="I265" s="35" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="J265" s="35" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="N265" s="7">
         <v>16</v>
@@ -13646,7 +13649,7 @@
         <v>265</v>
       </c>
       <c r="C266" s="35" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="D266" s="7">
         <v>-1</v>
@@ -13655,7 +13658,7 @@
         <v>1</v>
       </c>
       <c r="F266" s="7" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="G266" s="7">
         <v>1</v>
@@ -13664,10 +13667,10 @@
         <v>82</v>
       </c>
       <c r="I266" s="35" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="J266" s="35" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="N266" s="7">
         <v>16</v>
@@ -13681,7 +13684,7 @@
         <v>266</v>
       </c>
       <c r="C267" s="35" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="D267" s="7">
         <v>-1</v>
@@ -13690,7 +13693,7 @@
         <v>1</v>
       </c>
       <c r="F267" s="7" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="G267" s="7">
         <v>1</v>
@@ -13699,10 +13702,10 @@
         <v>83</v>
       </c>
       <c r="I267" s="35" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="J267" s="35" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="N267" s="7">
         <v>16</v>
@@ -13716,7 +13719,7 @@
         <v>267</v>
       </c>
       <c r="C268" s="35" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="D268" s="7">
         <v>-1</v>
@@ -13725,7 +13728,7 @@
         <v>1</v>
       </c>
       <c r="F268" s="7" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="G268" s="7">
         <v>1</v>
@@ -13734,10 +13737,10 @@
         <v>84</v>
       </c>
       <c r="I268" s="35" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="J268" s="35" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="N268" s="7">
         <v>16</v>
@@ -13751,7 +13754,7 @@
         <v>268</v>
       </c>
       <c r="C269" s="35" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="D269" s="7">
         <v>-1</v>
@@ -13760,7 +13763,7 @@
         <v>1</v>
       </c>
       <c r="F269" s="7" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="G269" s="7">
         <v>1</v>
@@ -13769,10 +13772,10 @@
         <v>85</v>
       </c>
       <c r="I269" s="35" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="J269" s="35" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="N269" s="7">
         <v>16</v>
@@ -13786,7 +13789,7 @@
         <v>269</v>
       </c>
       <c r="C270" s="35" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="D270" s="7">
         <v>-1</v>
@@ -13795,7 +13798,7 @@
         <v>1</v>
       </c>
       <c r="F270" s="7" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="G270" s="7">
         <v>1</v>
@@ -13804,10 +13807,10 @@
         <v>86</v>
       </c>
       <c r="I270" s="35" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="J270" s="35" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="N270" s="7">
         <v>16</v>
@@ -13821,7 +13824,7 @@
         <v>270</v>
       </c>
       <c r="C271" s="35" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="D271" s="7">
         <v>-1</v>
@@ -13830,7 +13833,7 @@
         <v>1</v>
       </c>
       <c r="F271" s="7" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="G271" s="7">
         <v>1</v>
@@ -13839,10 +13842,10 @@
         <v>87</v>
       </c>
       <c r="I271" s="35" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="J271" s="35" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="N271" s="7">
         <v>16</v>
@@ -13856,7 +13859,7 @@
         <v>271</v>
       </c>
       <c r="C272" s="35" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="D272" s="7">
         <v>-1</v>
@@ -13865,7 +13868,7 @@
         <v>1</v>
       </c>
       <c r="F272" s="7" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="G272" s="7">
         <v>1</v>
@@ -13874,10 +13877,10 @@
         <v>88</v>
       </c>
       <c r="I272" s="35" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="J272" s="35" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="N272" s="7">
         <v>16</v>
@@ -13891,7 +13894,7 @@
         <v>272</v>
       </c>
       <c r="C273" s="35" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="D273" s="7">
         <v>-1</v>
@@ -13900,7 +13903,7 @@
         <v>1</v>
       </c>
       <c r="F273" s="7" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="G273" s="7">
         <v>1</v>
@@ -13909,10 +13912,10 @@
         <v>89</v>
       </c>
       <c r="I273" s="35" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="J273" s="35" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="N273" s="7">
         <v>16</v>
@@ -13926,7 +13929,7 @@
         <v>273</v>
       </c>
       <c r="C274" s="35" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="D274" s="7">
         <v>-1</v>
@@ -13935,7 +13938,7 @@
         <v>1</v>
       </c>
       <c r="F274" s="7" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="G274" s="7">
         <v>1</v>
@@ -13944,10 +13947,10 @@
         <v>90</v>
       </c>
       <c r="I274" s="35" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="J274" s="35" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="N274" s="7">
         <v>16</v>
@@ -13961,7 +13964,7 @@
         <v>274</v>
       </c>
       <c r="C275" s="35" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="D275" s="7">
         <v>-1</v>
@@ -13970,7 +13973,7 @@
         <v>1</v>
       </c>
       <c r="F275" s="7" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="G275" s="7">
         <v>1</v>
@@ -13979,10 +13982,10 @@
         <v>91</v>
       </c>
       <c r="I275" s="35" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="J275" s="35" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="N275" s="7">
         <v>16</v>
@@ -13996,7 +13999,7 @@
         <v>275</v>
       </c>
       <c r="C276" s="35" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="D276" s="7">
         <v>-1</v>
@@ -14005,7 +14008,7 @@
         <v>1</v>
       </c>
       <c r="F276" s="7" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="G276" s="7">
         <v>1</v>
@@ -14014,10 +14017,10 @@
         <v>92</v>
       </c>
       <c r="I276" s="35" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="J276" s="35" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="N276" s="7">
         <v>16</v>
@@ -14031,7 +14034,7 @@
         <v>276</v>
       </c>
       <c r="C277" s="35" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="D277" s="7">
         <v>-1</v>
@@ -14040,7 +14043,7 @@
         <v>1</v>
       </c>
       <c r="F277" s="7" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G277" s="7">
         <v>1</v>
@@ -14049,10 +14052,10 @@
         <v>93</v>
       </c>
       <c r="I277" s="35" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="J277" s="35" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="N277" s="7">
         <v>16</v>
@@ -14066,7 +14069,7 @@
         <v>277</v>
       </c>
       <c r="C278" s="35" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="D278" s="7">
         <v>-1</v>
@@ -14075,7 +14078,7 @@
         <v>1</v>
       </c>
       <c r="F278" s="7" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G278" s="7">
         <v>1</v>
@@ -14084,10 +14087,10 @@
         <v>94</v>
       </c>
       <c r="I278" s="35" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="J278" s="35" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="N278" s="7">
         <v>16</v>
@@ -14101,7 +14104,7 @@
         <v>278</v>
       </c>
       <c r="C279" s="35" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="D279" s="7">
         <v>-1</v>
@@ -14110,7 +14113,7 @@
         <v>1</v>
       </c>
       <c r="F279" s="7" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G279" s="7">
         <v>1</v>
@@ -14119,10 +14122,10 @@
         <v>95</v>
       </c>
       <c r="I279" s="35" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="J279" s="35" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="N279" s="7">
         <v>16</v>
@@ -14136,7 +14139,7 @@
         <v>279</v>
       </c>
       <c r="C280" s="35" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="D280" s="7">
         <v>-1</v>
@@ -14145,7 +14148,7 @@
         <v>1</v>
       </c>
       <c r="F280" s="7" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G280" s="7">
         <v>1</v>
@@ -14154,10 +14157,10 @@
         <v>96</v>
       </c>
       <c r="I280" s="35" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="J280" s="35" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="N280" s="7">
         <v>16</v>
@@ -14171,7 +14174,7 @@
         <v>280</v>
       </c>
       <c r="C281" s="35" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="D281" s="7">
         <v>-1</v>
@@ -14180,7 +14183,7 @@
         <v>1</v>
       </c>
       <c r="F281" s="7" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G281" s="7">
         <v>1</v>
@@ -14189,10 +14192,10 @@
         <v>97</v>
       </c>
       <c r="I281" s="35" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="J281" s="35" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="N281" s="7">
         <v>16</v>
@@ -14206,7 +14209,7 @@
         <v>281</v>
       </c>
       <c r="C282" s="35" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="D282" s="7">
         <v>-1</v>
@@ -14215,7 +14218,7 @@
         <v>1</v>
       </c>
       <c r="F282" s="7" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G282" s="7">
         <v>1</v>
@@ -14224,10 +14227,10 @@
         <v>98</v>
       </c>
       <c r="I282" s="35" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="J282" s="35" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="N282" s="7">
         <v>16</v>
@@ -14241,7 +14244,7 @@
         <v>282</v>
       </c>
       <c r="C283" s="35" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="D283" s="7">
         <v>-1</v>
@@ -14250,7 +14253,7 @@
         <v>1</v>
       </c>
       <c r="F283" s="7" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G283" s="7">
         <v>1</v>
@@ -14259,10 +14262,10 @@
         <v>99</v>
       </c>
       <c r="I283" s="35" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="J283" s="35" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="N283" s="7">
         <v>16</v>
@@ -14276,7 +14279,7 @@
         <v>283</v>
       </c>
       <c r="C284" s="35" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="D284" s="7">
         <v>-1</v>
@@ -14285,7 +14288,7 @@
         <v>1</v>
       </c>
       <c r="F284" s="35" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G284" s="7">
         <v>1</v>
@@ -14294,10 +14297,10 @@
         <v>99</v>
       </c>
       <c r="I284" s="35" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="J284" s="35" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="N284" s="7">
         <v>16</v>
@@ -14311,7 +14314,7 @@
         <v>284</v>
       </c>
       <c r="C285" s="24" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="D285" s="3">
         <v>-1</v>
@@ -14320,7 +14323,7 @@
         <v>1</v>
       </c>
       <c r="F285" s="24" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="G285" s="3">
         <v>0</v>
@@ -14329,10 +14332,10 @@
         <v>33</v>
       </c>
       <c r="I285" s="24" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="J285" s="24" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="286" s="3" customFormat="1" spans="1:10">
@@ -14343,7 +14346,7 @@
         <v>285</v>
       </c>
       <c r="C286" s="24" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="D286" s="3">
         <v>-1</v>
@@ -14352,7 +14355,7 @@
         <v>1</v>
       </c>
       <c r="F286" s="3" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="G286" s="3">
         <v>0</v>
@@ -14361,10 +14364,10 @@
         <v>33</v>
       </c>
       <c r="I286" s="3" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="J286" s="3" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="287" s="3" customFormat="1" spans="1:10">
@@ -14375,7 +14378,7 @@
         <v>286</v>
       </c>
       <c r="C287" s="24" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="D287" s="3">
         <v>-1</v>
@@ -14384,7 +14387,7 @@
         <v>1</v>
       </c>
       <c r="F287" s="3" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="G287" s="3">
         <v>0</v>
@@ -14393,10 +14396,10 @@
         <v>33</v>
       </c>
       <c r="I287" s="3" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="J287" s="3" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="288" s="3" customFormat="1" spans="1:10">
@@ -14407,7 +14410,7 @@
         <v>287</v>
       </c>
       <c r="C288" s="24" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="D288" s="3">
         <v>-1</v>
@@ -14416,7 +14419,7 @@
         <v>1</v>
       </c>
       <c r="F288" s="24" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="G288" s="3">
         <v>0</v>
@@ -14425,10 +14428,10 @@
         <v>33</v>
       </c>
       <c r="I288" s="24" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="J288" s="24" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="289" s="3" customFormat="1" spans="1:10">
@@ -14439,7 +14442,7 @@
         <v>288</v>
       </c>
       <c r="C289" s="24" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="D289" s="3">
         <v>-1</v>
@@ -14448,7 +14451,7 @@
         <v>1</v>
       </c>
       <c r="F289" s="24" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="G289" s="3">
         <v>0</v>
@@ -14457,10 +14460,10 @@
         <v>33</v>
       </c>
       <c r="I289" s="24" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="J289" s="24" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="290" s="3" customFormat="1" spans="1:10">
@@ -14471,7 +14474,7 @@
         <v>289</v>
       </c>
       <c r="C290" s="24" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="D290" s="3">
         <v>-1</v>
@@ -14489,10 +14492,10 @@
         <v>33</v>
       </c>
       <c r="I290" s="24" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="J290" s="24" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="291" s="8" customFormat="1" spans="1:10">
@@ -14503,7 +14506,7 @@
         <v>290</v>
       </c>
       <c r="C291" s="30" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="D291" s="8">
         <v>-1</v>
@@ -14512,7 +14515,7 @@
         <v>1</v>
       </c>
       <c r="F291" s="30" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="G291" s="8">
         <v>0</v>
@@ -14521,10 +14524,10 @@
         <v>33</v>
       </c>
       <c r="I291" s="30" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="J291" s="30" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="292" s="3" customFormat="1" ht="16.5" spans="1:12">
@@ -14535,7 +14538,7 @@
         <v>291</v>
       </c>
       <c r="C292" s="24" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="D292" s="3">
         <v>-1</v>
@@ -14544,7 +14547,7 @@
         <v>1</v>
       </c>
       <c r="F292" s="24" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="G292" s="3">
         <v>1</v>
@@ -14553,13 +14556,13 @@
         <v>33</v>
       </c>
       <c r="I292" s="24" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="J292" s="24" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="L292" s="37" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="293" s="3" customFormat="1" ht="16.5" spans="1:12">
@@ -14570,7 +14573,7 @@
         <v>292</v>
       </c>
       <c r="C293" s="24" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="D293" s="3">
         <v>-1</v>
@@ -14579,7 +14582,7 @@
         <v>1</v>
       </c>
       <c r="F293" s="24" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="G293" s="3">
         <v>1</v>
@@ -14588,13 +14591,13 @@
         <v>33</v>
       </c>
       <c r="I293" s="24" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="J293" s="24" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="L293" s="37" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="294" s="3" customFormat="1" ht="16.5" spans="1:12">
@@ -14605,7 +14608,7 @@
         <v>293</v>
       </c>
       <c r="C294" s="24" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="D294" s="3">
         <v>-1</v>
@@ -14614,7 +14617,7 @@
         <v>1</v>
       </c>
       <c r="F294" s="24" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="G294" s="3">
         <v>1</v>
@@ -14623,13 +14626,13 @@
         <v>33</v>
       </c>
       <c r="I294" s="24" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="J294" s="24" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="L294" s="37" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="295" s="3" customFormat="1" spans="1:10">
@@ -14640,7 +14643,7 @@
         <v>294</v>
       </c>
       <c r="C295" s="24" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="D295" s="3">
         <v>-1</v>
@@ -14649,7 +14652,7 @@
         <v>1</v>
       </c>
       <c r="F295" s="3" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="G295" s="3">
         <v>1</v>
@@ -14658,10 +14661,10 @@
         <v>33</v>
       </c>
       <c r="I295" s="24" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="J295" s="24" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="296" s="3" customFormat="1" spans="1:10">
@@ -14672,7 +14675,7 @@
         <v>295</v>
       </c>
       <c r="C296" s="24" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="D296" s="3">
         <v>-1</v>
@@ -14681,7 +14684,7 @@
         <v>1</v>
       </c>
       <c r="F296" s="3" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="G296" s="3">
         <v>1</v>
@@ -14690,10 +14693,10 @@
         <v>33</v>
       </c>
       <c r="I296" s="24" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="J296" s="24" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="297" s="3" customFormat="1" spans="1:10">
@@ -14704,7 +14707,7 @@
         <v>296</v>
       </c>
       <c r="C297" s="24" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="D297" s="3">
         <v>-1</v>
@@ -14713,7 +14716,7 @@
         <v>1</v>
       </c>
       <c r="F297" s="3" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="G297" s="3">
         <v>1</v>
@@ -14722,10 +14725,10 @@
         <v>33</v>
       </c>
       <c r="I297" s="24" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="J297" s="24" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="298" s="3" customFormat="1" spans="1:10">
@@ -14736,7 +14739,7 @@
         <v>297</v>
       </c>
       <c r="C298" s="24" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="D298" s="3">
         <v>-1</v>
@@ -14745,7 +14748,7 @@
         <v>1</v>
       </c>
       <c r="F298" s="3" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="G298" s="3">
         <v>1</v>
@@ -14754,10 +14757,10 @@
         <v>33</v>
       </c>
       <c r="I298" s="24" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="J298" s="24" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="299" s="3" customFormat="1" ht="16.5" spans="1:10">
@@ -14768,7 +14771,7 @@
         <v>298</v>
       </c>
       <c r="C299" s="25" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="D299" s="3">
         <v>-1</v>
@@ -14777,7 +14780,7 @@
         <v>1</v>
       </c>
       <c r="F299" s="31" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="G299" s="3">
         <v>0</v>
@@ -14789,7 +14792,7 @@
         <v>337</v>
       </c>
       <c r="J299" s="24" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
     </row>
     <row r="300" s="3" customFormat="1" ht="16.5" spans="1:10">
@@ -14800,7 +14803,7 @@
         <v>299</v>
       </c>
       <c r="C300" s="25" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="D300" s="3">
         <v>-1</v>
@@ -14809,7 +14812,7 @@
         <v>1</v>
       </c>
       <c r="F300" s="24" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="G300" s="3">
         <v>0</v>
@@ -14821,7 +14824,7 @@
         <v>346</v>
       </c>
       <c r="J300" s="24" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
     </row>
     <row r="301" s="3" customFormat="1" ht="16.5" spans="1:10">
@@ -14832,7 +14835,7 @@
         <v>300</v>
       </c>
       <c r="C301" s="25" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="D301" s="3">
         <v>-1</v>
@@ -14841,7 +14844,7 @@
         <v>1</v>
       </c>
       <c r="F301" s="24" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="G301" s="3">
         <v>0</v>
@@ -14853,7 +14856,7 @@
         <v>330</v>
       </c>
       <c r="J301" s="24" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
     </row>
     <row r="302" s="3" customFormat="1" ht="16.5" spans="1:10">
@@ -14864,7 +14867,7 @@
         <v>301</v>
       </c>
       <c r="C302" s="25" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="D302" s="3">
         <v>-1</v>
@@ -14873,7 +14876,7 @@
         <v>1</v>
       </c>
       <c r="F302" s="24" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="G302" s="3">
         <v>0</v>
@@ -14885,7 +14888,7 @@
         <v>334</v>
       </c>
       <c r="J302" s="24" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
     </row>
     <row r="303" s="3" customFormat="1" ht="16.5" spans="1:10">
@@ -14896,7 +14899,7 @@
         <v>302</v>
       </c>
       <c r="C303" s="25" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="D303" s="3">
         <v>-1</v>
@@ -14905,7 +14908,7 @@
         <v>1</v>
       </c>
       <c r="F303" s="31" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="G303" s="3">
         <v>0</v>
@@ -14914,10 +14917,10 @@
         <v>1</v>
       </c>
       <c r="I303" s="24" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="J303" s="24" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
     </row>
     <row r="304" s="3" customFormat="1" ht="16.5" spans="1:10">
@@ -14928,7 +14931,7 @@
         <v>303</v>
       </c>
       <c r="C304" s="25" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="D304" s="3">
         <v>-1</v>
@@ -14937,7 +14940,7 @@
         <v>1</v>
       </c>
       <c r="F304" s="31" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="G304" s="3">
         <v>0</v>
@@ -14946,10 +14949,10 @@
         <v>1</v>
       </c>
       <c r="I304" s="24" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="J304" s="24" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
     </row>
     <row r="305" s="3" customFormat="1" ht="16.5" spans="1:10">
@@ -14960,7 +14963,7 @@
         <v>304</v>
       </c>
       <c r="C305" s="25" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="D305" s="3">
         <v>-1</v>
@@ -14969,7 +14972,7 @@
         <v>1</v>
       </c>
       <c r="F305" s="31" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="G305" s="3">
         <v>0</v>
@@ -14978,10 +14981,10 @@
         <v>1</v>
       </c>
       <c r="I305" s="24" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="J305" s="24" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
     </row>
     <row r="306" s="3" customFormat="1" ht="16.5" spans="1:10">
@@ -14992,7 +14995,7 @@
         <v>305</v>
       </c>
       <c r="C306" s="25" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="D306" s="3">
         <v>-1</v>
@@ -15001,7 +15004,7 @@
         <v>1</v>
       </c>
       <c r="F306" s="24" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="G306" s="3">
         <v>0</v>
@@ -15010,10 +15013,10 @@
         <v>1</v>
       </c>
       <c r="I306" s="24" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="J306" s="24" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="307" s="3" customFormat="1" ht="16.5" spans="1:10">
@@ -15024,7 +15027,7 @@
         <v>306</v>
       </c>
       <c r="C307" s="25" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="D307" s="3">
         <v>-1</v>
@@ -15033,7 +15036,7 @@
         <v>1</v>
       </c>
       <c r="F307" s="24" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="G307" s="3">
         <v>0</v>
@@ -15042,10 +15045,10 @@
         <v>1</v>
       </c>
       <c r="I307" s="24" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="J307" s="24" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="308" s="9" customFormat="1" ht="16.5" spans="1:12">
@@ -15056,7 +15059,7 @@
         <v>307</v>
       </c>
       <c r="C308" s="24" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="D308" s="3">
         <v>-1</v>
@@ -15065,7 +15068,7 @@
         <v>1</v>
       </c>
       <c r="F308" s="25" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="G308" s="3">
         <v>1</v>
@@ -15074,16 +15077,16 @@
         <v>1</v>
       </c>
       <c r="I308" s="24" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="J308" s="38" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="K308" s="9" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="L308" s="39" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
     </row>
     <row r="309" s="9" customFormat="1" ht="16.5" spans="1:12">
@@ -15094,34 +15097,34 @@
         <v>308</v>
       </c>
       <c r="C309" s="24" t="s">
+        <v>948</v>
+      </c>
+      <c r="D309" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E309" s="3">
+        <v>1</v>
+      </c>
+      <c r="F309" s="25" t="s">
+        <v>949</v>
+      </c>
+      <c r="G309" s="3">
+        <v>1</v>
+      </c>
+      <c r="H309" s="3">
+        <v>1</v>
+      </c>
+      <c r="I309" s="24" t="s">
+        <v>950</v>
+      </c>
+      <c r="J309" s="38" t="s">
+        <v>951</v>
+      </c>
+      <c r="K309" s="9" t="s">
+        <v>946</v>
+      </c>
+      <c r="L309" s="39" t="s">
         <v>947</v>
-      </c>
-      <c r="D309" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E309" s="3">
-        <v>1</v>
-      </c>
-      <c r="F309" s="25" t="s">
-        <v>948</v>
-      </c>
-      <c r="G309" s="3">
-        <v>1</v>
-      </c>
-      <c r="H309" s="3">
-        <v>1</v>
-      </c>
-      <c r="I309" s="24" t="s">
-        <v>949</v>
-      </c>
-      <c r="J309" s="38" t="s">
-        <v>950</v>
-      </c>
-      <c r="K309" s="9" t="s">
-        <v>945</v>
-      </c>
-      <c r="L309" s="39" t="s">
-        <v>946</v>
       </c>
     </row>
     <row r="310" s="9" customFormat="1" ht="16.5" spans="1:12">
@@ -15132,7 +15135,7 @@
         <v>309</v>
       </c>
       <c r="C310" s="24" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D310" s="3">
         <v>-1</v>
@@ -15141,7 +15144,7 @@
         <v>1</v>
       </c>
       <c r="F310" s="25" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="G310" s="3">
         <v>1</v>
@@ -15150,16 +15153,16 @@
         <v>1</v>
       </c>
       <c r="I310" s="24" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="J310" s="38" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="K310" s="9" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="L310" s="39" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
     </row>
     <row r="311" s="9" customFormat="1" ht="16.5" spans="1:12">
@@ -15170,7 +15173,7 @@
         <v>310</v>
       </c>
       <c r="C311" s="24" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="D311" s="3">
         <v>-1</v>
@@ -15179,7 +15182,7 @@
         <v>1</v>
       </c>
       <c r="F311" s="25" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="G311" s="3">
         <v>1</v>
@@ -15188,16 +15191,16 @@
         <v>1</v>
       </c>
       <c r="I311" s="24" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="J311" s="38" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="K311" s="9" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="L311" s="39" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
     </row>
     <row r="312" s="9" customFormat="1" ht="16.5" spans="1:12">
@@ -15208,7 +15211,7 @@
         <v>311</v>
       </c>
       <c r="C312" s="24" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="D312" s="3">
         <v>-1</v>
@@ -15217,7 +15220,7 @@
         <v>1</v>
       </c>
       <c r="F312" s="25" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="G312" s="3">
         <v>1</v>
@@ -15226,16 +15229,16 @@
         <v>1</v>
       </c>
       <c r="I312" s="24" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="J312" s="38" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="K312" s="9" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="L312" s="39" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
     </row>
     <row r="313" s="9" customFormat="1" ht="16.5" spans="1:12">
@@ -15246,7 +15249,7 @@
         <v>312</v>
       </c>
       <c r="C313" s="24" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="D313" s="3">
         <v>-1</v>
@@ -15255,7 +15258,7 @@
         <v>1</v>
       </c>
       <c r="F313" s="25" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="G313" s="3">
         <v>1</v>
@@ -15264,16 +15267,16 @@
         <v>1</v>
       </c>
       <c r="I313" s="24" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="J313" s="38" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="K313" s="9" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="L313" s="39" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
     </row>
     <row r="314" s="3" customFormat="1" ht="16.5" spans="1:10">
@@ -15284,7 +15287,7 @@
         <v>313</v>
       </c>
       <c r="C314" s="25" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="D314" s="3">
         <v>-1</v>
@@ -15293,7 +15296,7 @@
         <v>1</v>
       </c>
       <c r="F314" s="31" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="G314" s="3">
         <v>0</v>
@@ -15302,10 +15305,10 @@
         <v>1</v>
       </c>
       <c r="I314" s="24" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="J314" s="24" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="315" ht="16.5" spans="1:12">
@@ -15316,7 +15319,7 @@
         <v>314</v>
       </c>
       <c r="C315" s="14" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="D315" s="3">
         <v>-1</v>
@@ -15325,7 +15328,7 @@
         <v>1</v>
       </c>
       <c r="F315" s="25" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="G315" s="10">
         <v>1</v>
@@ -15334,13 +15337,13 @@
         <v>1</v>
       </c>
       <c r="I315" s="14" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="J315" s="10" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="L315" s="14" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="316" ht="16.5" spans="1:12">
@@ -15351,7 +15354,7 @@
         <v>315</v>
       </c>
       <c r="C316" s="14" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="D316" s="3">
         <v>-1</v>
@@ -15360,7 +15363,7 @@
         <v>1</v>
       </c>
       <c r="F316" s="25" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="G316" s="10">
         <v>1</v>
@@ -15369,13 +15372,13 @@
         <v>1</v>
       </c>
       <c r="I316" s="14" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="J316" s="10" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="L316" s="14" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
     </row>
     <row r="317" ht="16.5" spans="1:12">
@@ -15386,7 +15389,7 @@
         <v>316</v>
       </c>
       <c r="C317" s="14" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="D317" s="3">
         <v>-1</v>
@@ -15395,7 +15398,7 @@
         <v>1</v>
       </c>
       <c r="F317" s="25" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="G317" s="10">
         <v>1</v>
@@ -15404,13 +15407,13 @@
         <v>1</v>
       </c>
       <c r="I317" s="14" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="J317" s="10" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="L317" s="14" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="318" ht="16.5" spans="1:12">
@@ -15421,7 +15424,7 @@
         <v>317</v>
       </c>
       <c r="C318" s="14" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="D318" s="3">
         <v>-1</v>
@@ -15430,7 +15433,7 @@
         <v>1</v>
       </c>
       <c r="F318" s="25" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="G318" s="10">
         <v>1</v>
@@ -15439,13 +15442,13 @@
         <v>1</v>
       </c>
       <c r="I318" s="14" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="J318" s="10" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="L318" s="14" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
     </row>
     <row r="319" spans="1:10">
@@ -15456,7 +15459,7 @@
         <v>318</v>
       </c>
       <c r="C319" s="14" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="D319" s="10">
         <v>-1</v>
@@ -15465,7 +15468,7 @@
         <v>1</v>
       </c>
       <c r="F319" s="14" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="G319" s="10">
         <v>0</v>
@@ -15474,10 +15477,10 @@
         <v>1</v>
       </c>
       <c r="I319" s="14" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="J319" s="14" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
     </row>
     <row r="320" spans="1:12">
@@ -15488,7 +15491,7 @@
         <v>319</v>
       </c>
       <c r="C320" s="14" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="D320" s="10">
         <v>-1</v>
@@ -15497,7 +15500,7 @@
         <v>1</v>
       </c>
       <c r="F320" s="14" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="G320" s="10">
         <v>1</v>
@@ -15506,13 +15509,13 @@
         <v>1</v>
       </c>
       <c r="I320" s="14" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="J320" s="14" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="L320" s="14" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
     </row>
     <row r="321" spans="1:10">
@@ -15523,7 +15526,7 @@
         <v>320</v>
       </c>
       <c r="C321" s="14" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="D321" s="10">
         <v>-1</v>
@@ -15532,7 +15535,7 @@
         <v>1</v>
       </c>
       <c r="F321" s="14" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="G321" s="10">
         <v>0</v>
@@ -15541,10 +15544,10 @@
         <v>1</v>
       </c>
       <c r="I321" s="14" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="J321" s="14" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="322" ht="15.75" spans="1:10">
@@ -15555,7 +15558,7 @@
         <v>321</v>
       </c>
       <c r="C322" s="14" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="D322" s="10">
         <v>-1</v>
@@ -15564,7 +15567,7 @@
         <v>1</v>
       </c>
       <c r="F322" s="40" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="G322" s="10">
         <v>0</v>
@@ -15573,10 +15576,10 @@
         <v>1</v>
       </c>
       <c r="I322" s="14" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="J322" s="14" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="323" spans="1:10">
@@ -15587,7 +15590,7 @@
         <v>322</v>
       </c>
       <c r="C323" s="10" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="D323" s="10">
         <v>-1</v>
@@ -15596,7 +15599,7 @@
         <v>1</v>
       </c>
       <c r="F323" s="10" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="G323" s="10">
         <v>0</v>
@@ -15605,10 +15608,10 @@
         <v>1</v>
       </c>
       <c r="I323" s="10" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="J323" s="10" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="324" spans="1:10">
@@ -15619,7 +15622,7 @@
         <v>323</v>
       </c>
       <c r="C324" s="10" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="D324" s="10">
         <v>-1</v>
@@ -15628,7 +15631,7 @@
         <v>1</v>
       </c>
       <c r="F324" s="10" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="G324" s="10">
         <v>0</v>
@@ -15637,10 +15640,10 @@
         <v>1</v>
       </c>
       <c r="I324" s="10" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="J324" s="10" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="325" spans="1:10">
@@ -15651,7 +15654,7 @@
         <v>324</v>
       </c>
       <c r="C325" s="14" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="D325" s="10">
         <v>-1</v>
@@ -15660,7 +15663,7 @@
         <v>1</v>
       </c>
       <c r="F325" s="14" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="G325" s="10">
         <v>1</v>
@@ -15669,10 +15672,10 @@
         <v>1</v>
       </c>
       <c r="I325" s="14" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="J325" s="14" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="326" spans="1:10">
@@ -15683,7 +15686,7 @@
         <v>325</v>
       </c>
       <c r="C326" s="14" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="D326" s="10">
         <v>-1</v>
@@ -15692,7 +15695,7 @@
         <v>1</v>
       </c>
       <c r="F326" s="14" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="G326" s="10">
         <v>1</v>
@@ -15701,10 +15704,10 @@
         <v>1</v>
       </c>
       <c r="I326" s="14" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="J326" s="14" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="327" ht="15.75" spans="1:10">
@@ -15715,7 +15718,7 @@
         <v>326</v>
       </c>
       <c r="C327" s="41" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D327" s="10">
         <v>-1</v>
@@ -15724,7 +15727,7 @@
         <v>1</v>
       </c>
       <c r="F327" s="14" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="G327" s="10">
         <v>1</v>
@@ -15733,10 +15736,10 @@
         <v>1</v>
       </c>
       <c r="I327" s="10" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="J327" s="10" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="328" ht="15.75" spans="1:10">
@@ -15747,28 +15750,28 @@
         <v>327</v>
       </c>
       <c r="C328" s="41" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D328" s="10">
+        <v>-1</v>
+      </c>
+      <c r="E328" s="10">
+        <v>1</v>
+      </c>
+      <c r="F328" s="14" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G328" s="10">
+        <v>1</v>
+      </c>
+      <c r="H328" s="10">
+        <v>1</v>
+      </c>
+      <c r="I328" s="10" t="s">
+        <v>1026</v>
+      </c>
+      <c r="J328" s="10" t="s">
         <v>1024</v>
-      </c>
-      <c r="D328" s="10">
-        <v>-1</v>
-      </c>
-      <c r="E328" s="10">
-        <v>1</v>
-      </c>
-      <c r="F328" s="14" t="s">
-        <v>1018</v>
-      </c>
-      <c r="G328" s="10">
-        <v>1</v>
-      </c>
-      <c r="H328" s="10">
-        <v>1</v>
-      </c>
-      <c r="I328" s="10" t="s">
-        <v>1025</v>
-      </c>
-      <c r="J328" s="10" t="s">
-        <v>1023</v>
       </c>
     </row>
   </sheetData>
